--- a/WebRoot/page/audittempnometro.xlsx
+++ b/WebRoot/page/audittempnometro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18210" windowHeight="7320" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18210" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="审定单（非地铁）" sheetId="2" r:id="rId1"/>
@@ -15,8 +15,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">封面!$A$1:$F$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'审定单（非地铁）'!$A$1:$U$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">签署页!$A$1:$H$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'审定单（非地铁）'!$A$1:$U$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">资料登记表!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
   <si>
     <t>报建编号：</t>
   </si>
@@ -594,6 +594,14 @@
     <t>（生成表格日期）</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
+  <si>
+    <t>上海联合工程监理造价咨询有限公司</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海联合工程监理造价咨询有限公司会议室</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +615,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -800,7 +808,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -812,7 +820,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -840,7 +848,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1043,7 +1051,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,6 +1254,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1255,6 +1324,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1264,63 +1369,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1381,28 +1447,52 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1412,86 +1502,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,6 +1583,74 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>342987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 5" descr="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7867650" y="6543675"/>
+          <a:ext cx="3324225" cy="257262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1745,6 +1827,152 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1428750" cy="533400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2828925" y="371475"/>
+          <a:ext cx="1428750" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 2" descr="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1571625" y="7953375"/>
+          <a:ext cx="3686175" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2040,8 +2268,8 @@
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2050,29 +2278,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="12"/>
@@ -2098,13 +2326,13 @@
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2125,155 +2353,155 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="127" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="130" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="135"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="91"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="92"/>
     </row>
     <row r="5" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="130" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="135"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="92"/>
     </row>
     <row r="6" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="130" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="102" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="130" t="s">
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="131"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="130" t="s">
+      <c r="M6" s="103"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="132"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="104"/>
     </row>
     <row r="7" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="130" t="s">
+      <c r="B7" s="97"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="102" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="130" t="s">
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="131"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="136" t="s">
+      <c r="M7" s="103"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="138"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="114"/>
     </row>
     <row r="8" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="133" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="139" t="s">
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="130" t="s">
+      <c r="L8" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="131"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="133" t="s">
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="134"/>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="139" t="s">
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="72" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2324,33 +2552,33 @@
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="72" t="s">
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="74"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="95"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1">
       <c r="A12" s="30"/>
@@ -2399,62 +2627,62 @@
       <c r="U13" s="34"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="72" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="72" t="s">
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="74"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="95"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="72" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="72" t="s">
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="74"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="95"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1">
       <c r="A16" s="19"/>
@@ -2503,66 +2731,66 @@
       <c r="U17" s="27"/>
     </row>
     <row r="18" spans="1:21" ht="50.1" customHeight="1">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="85" t="s">
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="87"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="85"/>
+      <c r="U18" s="86"/>
     </row>
     <row r="19" spans="1:21" ht="50.1" customHeight="1">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="88" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="90"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="89"/>
     </row>
     <row r="20" spans="1:21" ht="35.1" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2646,17 +2874,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="6"/>
@@ -2674,13 +2902,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
         <v>25</v>
@@ -2690,14 +2918,14 @@
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
       <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
@@ -2709,14 +2937,14 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
       <c r="H5" s="35"/>
       <c r="I5" s="8"/>
     </row>
@@ -2724,14 +2952,14 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
       <c r="H6" s="35"/>
       <c r="I6" s="8"/>
     </row>
@@ -2739,14 +2967,14 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="35"/>
       <c r="I7" s="8"/>
     </row>
@@ -2754,14 +2982,14 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
       <c r="H8" s="35"/>
       <c r="I8" s="8"/>
     </row>
@@ -2769,14 +2997,14 @@
       <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
@@ -2784,14 +3012,14 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="35"/>
       <c r="I10" s="8"/>
     </row>
@@ -2799,14 +3027,14 @@
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="35"/>
       <c r="I11" s="8"/>
     </row>
@@ -2814,14 +3042,14 @@
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="35"/>
       <c r="I12" s="8"/>
     </row>
@@ -2829,14 +3057,14 @@
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
       <c r="H13" s="35"/>
       <c r="I13" s="8"/>
     </row>
@@ -2844,14 +3072,14 @@
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
@@ -2859,14 +3087,14 @@
       <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
@@ -2874,14 +3102,14 @@
       <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
@@ -2889,14 +3117,14 @@
       <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
@@ -2904,14 +3132,14 @@
       <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="35"/>
       <c r="I18" s="8"/>
     </row>
@@ -2919,14 +3147,14 @@
       <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
       <c r="H19" s="35"/>
       <c r="I19" s="8"/>
     </row>
@@ -2934,14 +3162,14 @@
       <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="35"/>
       <c r="I20" s="8"/>
     </row>
@@ -2949,14 +3177,14 @@
       <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
@@ -2964,158 +3192,158 @@
       <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="136"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="100" t="s">
+      <c r="A24" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="100" t="s">
+      <c r="B24" s="121"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="100" t="s">
+      <c r="E24" s="121"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="122"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="100" t="s">
+      <c r="B25" s="121"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="100" t="s">
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="106"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="128"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="100" t="s">
+      <c r="B27" s="121"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="100" t="s">
+      <c r="E27" s="121"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="122"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="125"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="100" t="s">
+      <c r="B29" s="121"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="100" t="s">
+      <c r="E29" s="121"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="101"/>
-      <c r="I29" s="102"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="122"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="106"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="108"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="109" t="s">
+      <c r="B31" s="130"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="109" t="s">
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="110"/>
-      <c r="I31" s="111"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="131"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="118"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -3183,8 +3411,8 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3193,15 +3421,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="40"/>
@@ -3220,51 +3448,55 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="123"/>
+      <c r="G3" s="147"/>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="144" t="s">
+      <c r="B5" s="148" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="144"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
+      <c r="D6" s="155" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1">
       <c r="A7" s="43"/>
@@ -3459,71 +3691,73 @@
       <c r="A28" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120" t="s">
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:7" ht="35.1" customHeight="1">
       <c r="A29" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
     </row>
     <row r="30" spans="1:7" ht="35.1" customHeight="1">
       <c r="A30" s="39"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
     </row>
     <row r="31" spans="1:7" ht="35.1" customHeight="1">
       <c r="A31" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="153" t="s">
+      <c r="B31" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
     </row>
     <row r="32" spans="1:7" ht="35.1" customHeight="1">
       <c r="A32" s="39"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
     </row>
     <row r="33" spans="1:7" ht="35.1" customHeight="1">
       <c r="A33" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
+      <c r="B33" s="156" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="37"/>
@@ -3535,33 +3769,27 @@
       <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="118"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
@@ -3575,6 +3803,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3592,7 +3826,7 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3617,28 +3851,28 @@
       <c r="F2" s="52"/>
     </row>
     <row r="3" spans="2:6" ht="50.1" customHeight="1">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
       <c r="F3" s="52"/>
     </row>
     <row r="4" spans="2:6" ht="50.1" customHeight="1">
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
       <c r="F4" s="52"/>
     </row>
     <row r="5" spans="2:6" ht="50.1" customHeight="1" thickBot="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
       <c r="F5" s="57"/>
     </row>
     <row r="6" spans="2:6" ht="18.75" thickTop="1">
@@ -3652,7 +3886,7 @@
       <c r="C7" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="149" t="s">
+      <c r="D7" s="76" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="52"/>
@@ -3661,7 +3895,7 @@
       <c r="C8" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="77" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="52"/>
@@ -3777,8 +4011,8 @@
   </sheetPr>
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3799,14 +4033,14 @@
       <c r="H1" s="60"/>
     </row>
     <row r="2" spans="2:8" ht="60" customHeight="1">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="154" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="60"/>
     </row>
     <row r="3" spans="2:8" ht="17.100000000000001" customHeight="1">
@@ -3822,7 +4056,7 @@
       <c r="B4" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="78" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="60"/>
@@ -3835,7 +4069,7 @@
       <c r="B5" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="79" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="60"/>
@@ -4048,14 +4282,14 @@
     </row>
     <row r="34" spans="2:8" ht="17.25">
       <c r="B34" s="60"/>
-      <c r="C34" s="125" t="s">
+      <c r="C34" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
     </row>
     <row r="36" spans="2:8" ht="14.25">
       <c r="B36" s="69"/>
@@ -4074,5 +4308,6 @@
   <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebRoot/page/audittempnometro.xlsx
+++ b/WebRoot/page/audittempnometro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18210" windowHeight="7320"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18210" windowHeight="7320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="审定单（非地铁）" sheetId="2" r:id="rId1"/>
@@ -489,9 +489,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">           证书编号：甲150331000541</t>
-  </si>
-  <si>
     <t>（项目属性内的项目文号）</t>
   </si>
   <si>
@@ -600,6 +597,10 @@
   </si>
   <si>
     <t>上海联合工程监理造价咨询有限公司会议室</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           证书编号：甲190331000541</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -1276,6 +1277,78 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1306,33 +1379,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1342,49 +1388,61 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,98 +1454,41 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1502,11 +1503,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1661,6 +1662,89 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>454025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 2" descr="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3775075" cy="454025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -1759,10 +1843,88 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1073150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>454025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4645025" cy="454025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1893,7 +2055,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2268,7 +2430,7 @@
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2278,29 +2440,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="12"/>
@@ -2326,13 +2488,13 @@
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2353,154 +2515,154 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="88"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="83"/>
+    </row>
+    <row r="5" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A5" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="88"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="83"/>
+    </row>
+    <row r="6" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A6" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="88"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="89"/>
+    </row>
+    <row r="7" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A7" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="88"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="92"/>
+    </row>
+    <row r="8" spans="1:21" ht="35.1" customHeight="1">
+      <c r="A8" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="92"/>
-    </row>
-    <row r="5" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A5" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="92"/>
-    </row>
-    <row r="6" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A6" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="103"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="104"/>
-    </row>
-    <row r="7" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A7" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="114"/>
-    </row>
-    <row r="8" spans="1:21" ht="35.1" customHeight="1">
-      <c r="A8" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="92"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
       <c r="U8" s="72" t="s">
         <v>3</v>
       </c>
@@ -2552,33 +2714,33 @@
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="108" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="93" t="s">
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="95"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="100"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" customHeight="1">
       <c r="A12" s="30"/>
@@ -2627,62 +2789,62 @@
       <c r="U13" s="34"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="93" t="s">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="93" t="s">
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="95"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="100"/>
     </row>
     <row r="15" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="93" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="93" t="s">
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="95"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="100"/>
     </row>
     <row r="16" spans="1:21" ht="16.5" customHeight="1">
       <c r="A16" s="19"/>
@@ -2731,66 +2893,66 @@
       <c r="U17" s="27"/>
     </row>
     <row r="18" spans="1:21" ht="50.1" customHeight="1">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="84" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="86"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="110"/>
     </row>
     <row r="19" spans="1:21" ht="50.1" customHeight="1">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="87" t="s">
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="89"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="113"/>
     </row>
     <row r="20" spans="1:21" ht="35.1" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2811,6 +2973,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="L18:U18"/>
+    <mergeCell ref="L19:U19"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:U15"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="O14:U14"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H14:N14"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O8:T8"/>
     <mergeCell ref="A7:C7"/>
@@ -2827,27 +3010,6 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="L18:U18"/>
-    <mergeCell ref="L19:U19"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:U15"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="O14:U14"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2865,7 +3027,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2873,20 +3035,20 @@
     <col min="8" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A1" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+    </row>
+    <row r="2" spans="1:9" ht="23.25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2902,13 +3064,13 @@
         <v>58</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="137" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
+      <c r="C3" s="117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
         <v>25</v>
@@ -2918,14 +3080,14 @@
       <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
       <c r="H4" s="7" t="s">
         <v>28</v>
       </c>
@@ -2937,14 +3099,14 @@
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
       <c r="H5" s="35"/>
       <c r="I5" s="8"/>
     </row>
@@ -2952,14 +3114,14 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="35"/>
       <c r="I6" s="8"/>
     </row>
@@ -2967,14 +3129,14 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="35"/>
       <c r="I7" s="8"/>
     </row>
@@ -2982,14 +3144,14 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
       <c r="H8" s="35"/>
       <c r="I8" s="8"/>
     </row>
@@ -2997,14 +3159,14 @@
       <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
@@ -3012,14 +3174,14 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
       <c r="H10" s="35"/>
       <c r="I10" s="8"/>
     </row>
@@ -3027,14 +3189,14 @@
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="35"/>
       <c r="I11" s="8"/>
     </row>
@@ -3042,14 +3204,14 @@
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
       <c r="H12" s="35"/>
       <c r="I12" s="8"/>
     </row>
@@ -3057,14 +3219,14 @@
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
       <c r="H13" s="35"/>
       <c r="I13" s="8"/>
     </row>
@@ -3072,14 +3234,14 @@
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
@@ -3087,14 +3249,14 @@
       <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
@@ -3102,14 +3264,14 @@
       <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
@@ -3117,14 +3279,14 @@
       <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
@@ -3132,14 +3294,14 @@
       <c r="A18" s="8">
         <v>14</v>
       </c>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
       <c r="H18" s="35"/>
       <c r="I18" s="8"/>
     </row>
@@ -3147,14 +3309,14 @@
       <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
       <c r="H19" s="35"/>
       <c r="I19" s="8"/>
     </row>
@@ -3162,14 +3324,14 @@
       <c r="A20" s="8">
         <v>16</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
       <c r="H20" s="35"/>
       <c r="I20" s="8"/>
     </row>
@@ -3177,14 +3339,14 @@
       <c r="A21" s="8">
         <v>17</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
@@ -3192,171 +3354,184 @@
       <c r="A22" s="8">
         <v>18</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="134"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="136"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="124" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="121"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="120" t="s">
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="126"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="120" t="s">
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="120" t="s">
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="121"/>
-      <c r="I25" s="122"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="126"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="126"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="120" t="s">
+      <c r="B27" s="125"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="120" t="s">
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="121"/>
-      <c r="I27" s="122"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="126"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="123"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="125"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="135"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="120" t="s">
+      <c r="B29" s="125"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="120" t="s">
+      <c r="E29" s="125"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="121"/>
-      <c r="I29" s="122"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="129"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="129" t="s">
+      <c r="B31" s="131"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="130"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="129" t="s">
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="130"/>
-      <c r="I31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
     </row>
     <row r="32" spans="1:9" ht="30" customHeight="1">
-      <c r="A32" s="117" t="s">
+      <c r="A32" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G24:I24"/>
     <mergeCell ref="G25:I25"/>
@@ -3373,34 +3548,22 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3420,18 +3583,18 @@
     <col min="1" max="7" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A1" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="40"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3448,34 +3611,34 @@
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="143"/>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
+      <c r="B4" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="148" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
+      <c r="B5" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
       <c r="F5" s="73" t="s">
         <v>63</v>
       </c>
@@ -3486,17 +3649,17 @@
         <v>64</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
+      <c r="D6" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1">
       <c r="A7" s="43"/>
@@ -3691,73 +3854,73 @@
       <c r="A28" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="140" t="s">
+      <c r="B28" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140" t="s">
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="1:7" ht="35.1" customHeight="1">
       <c r="A29" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
+        <v>95</v>
+      </c>
+      <c r="B29" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
     </row>
     <row r="30" spans="1:7" ht="35.1" customHeight="1">
       <c r="A30" s="39"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
     </row>
     <row r="31" spans="1:7" ht="35.1" customHeight="1">
       <c r="A31" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
+        <v>96</v>
+      </c>
+      <c r="B31" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
     </row>
     <row r="32" spans="1:7" ht="35.1" customHeight="1">
       <c r="A32" s="39"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
     </row>
     <row r="33" spans="1:7" ht="35.1" customHeight="1">
       <c r="A33" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="156" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
+      <c r="B33" s="150" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="37"/>
@@ -3769,27 +3932,30 @@
       <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="142"/>
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
@@ -3806,9 +3972,6 @@
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:G32"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3852,7 +4015,7 @@
     </row>
     <row r="3" spans="2:6" ht="50.1" customHeight="1">
       <c r="B3" s="152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="152"/>
       <c r="D3" s="152"/>
@@ -3887,7 +4050,7 @@
         <v>73</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="52"/>
     </row>
@@ -3896,7 +4059,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="52"/>
     </row>
@@ -4011,8 +4174,8 @@
   </sheetPr>
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4034,7 +4197,7 @@
     </row>
     <row r="2" spans="2:8" ht="60" customHeight="1">
       <c r="B2" s="154" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="154"/>
@@ -4057,7 +4220,7 @@
         <v>73</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="60"/>
@@ -4070,7 +4233,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -4283,7 +4446,7 @@
     <row r="34" spans="2:8" ht="17.25">
       <c r="B34" s="60"/>
       <c r="C34" s="153" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D34" s="153"/>
       <c r="E34" s="153"/>
